--- a/data/trans_orig/P50A_1-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P50A_1-Habitat-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>39850</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>29032</v>
+        <v>28240</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>52116</v>
+        <v>52888</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05729847044978426</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04174394158657825</v>
+        <v>0.0406045101916769</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07493546904396627</v>
+        <v>0.07604520171050325</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>20</v>
@@ -763,19 +763,19 @@
         <v>20990</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>12823</v>
+        <v>12968</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>32420</v>
+        <v>32169</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03143780652963482</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01920605695208673</v>
+        <v>0.01942303101187474</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04855768478243772</v>
+        <v>0.0481817963010536</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>60</v>
@@ -784,19 +784,19 @@
         <v>60840</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>48198</v>
+        <v>46359</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>77613</v>
+        <v>77554</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04463197293460808</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03535809844695081</v>
+        <v>0.03400870359216104</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05693725296101428</v>
+        <v>0.05689334026918681</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>24809</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>16520</v>
+        <v>17075</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>35855</v>
+        <v>35912</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0356725015279629</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0237533119855005</v>
+        <v>0.02455129956547691</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05155419124892795</v>
+        <v>0.05163687397255678</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>18</v>
@@ -834,19 +834,19 @@
         <v>18260</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>11044</v>
+        <v>11118</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>27684</v>
+        <v>28052</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02734927462324908</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01654185332507546</v>
+        <v>0.0166522627229927</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04146355400337818</v>
+        <v>0.04201537116086194</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>43</v>
@@ -855,19 +855,19 @@
         <v>43069</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>31365</v>
+        <v>32437</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>56798</v>
+        <v>56889</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03159580290830132</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02300967925631486</v>
+        <v>0.02379551545532994</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04166717711024224</v>
+        <v>0.04173360816646667</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>22170</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14344</v>
+        <v>14536</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>33334</v>
+        <v>32719</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03187743745867985</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02062478013205694</v>
+        <v>0.02090101823136107</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04793038403365346</v>
+        <v>0.04704571655115179</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>12</v>
@@ -905,19 +905,19 @@
         <v>11910</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>6113</v>
+        <v>6070</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>20154</v>
+        <v>20475</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01783782636511103</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.009156209161596207</v>
+        <v>0.009091211533667732</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.03018605962711749</v>
+        <v>0.03066685746081186</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>35</v>
@@ -926,19 +926,19 @@
         <v>34080</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>23821</v>
+        <v>23151</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>46504</v>
+        <v>46564</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02500086616956572</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01747544319633153</v>
+        <v>0.01698335442738505</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03411516276379467</v>
+        <v>0.03415930535433854</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>608648</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>591606</v>
+        <v>590879</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>623896</v>
+        <v>626719</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8751515905635729</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8506472656116405</v>
+        <v>0.8496025868210241</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8970760297043618</v>
+        <v>0.9011358486439861</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>572</v>
@@ -976,19 +976,19 @@
         <v>616503</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>601095</v>
+        <v>602192</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>628365</v>
+        <v>628659</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9233750924820051</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9002975248740006</v>
+        <v>0.9019405292885111</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9411416331331027</v>
+        <v>0.9415806541331307</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1150</v>
@@ -997,19 +997,19 @@
         <v>1225150</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1202913</v>
+        <v>1204098</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1245688</v>
+        <v>1246087</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8987713579875248</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8824578410045845</v>
+        <v>0.8833277371323105</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9138381739843976</v>
+        <v>0.9141302229497604</v>
       </c>
     </row>
     <row r="8">
@@ -1101,19 +1101,19 @@
         <v>16395</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>9170</v>
+        <v>9198</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>28110</v>
+        <v>28569</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01650759421191895</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.00923352359048767</v>
+        <v>0.009260838612023384</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02830288471820287</v>
+        <v>0.02876581358914353</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>14</v>
@@ -1122,19 +1122,19 @@
         <v>14463</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>8308</v>
+        <v>7517</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>23882</v>
+        <v>24473</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01456370819420483</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.008365246767120785</v>
+        <v>0.007569267252201251</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.02404729428237824</v>
+        <v>0.02464313508500928</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>28</v>
@@ -1143,19 +1143,19 @@
         <v>30858</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>20612</v>
+        <v>20854</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>43593</v>
+        <v>43727</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01553568083877213</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01037721790371906</v>
+        <v>0.01049925441986801</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.02194719188032137</v>
+        <v>0.02201443352522815</v>
       </c>
     </row>
     <row r="10">
@@ -1172,19 +1172,19 @@
         <v>31382</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>21969</v>
+        <v>20521</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45464</v>
+        <v>44171</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03159799726390874</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02212039305601142</v>
+        <v>0.02066253465517812</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04577714585841457</v>
+        <v>0.04447492635945974</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>19</v>
@@ -1193,19 +1193,19 @@
         <v>19748</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>12389</v>
+        <v>12241</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>30176</v>
+        <v>30382</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01988493974698808</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.012474783816627</v>
+        <v>0.0123257311469252</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03038571576525742</v>
+        <v>0.03059242858219256</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>48</v>
@@ -1214,19 +1214,19 @@
         <v>51130</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>39034</v>
+        <v>37319</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>68709</v>
+        <v>67481</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0257416470780475</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01965161735376973</v>
+        <v>0.01878820306758726</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03459199012110929</v>
+        <v>0.0339738063605461</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>33662</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>23015</v>
+        <v>22698</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>48726</v>
+        <v>47838</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03389391281296212</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02317306985017817</v>
+        <v>0.02285440952410652</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04906117247604267</v>
+        <v>0.04816668594114625</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>21</v>
@@ -1264,19 +1264,19 @@
         <v>22524</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>14572</v>
+        <v>14741</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>33276</v>
+        <v>34578</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02268044996845131</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01467275099773265</v>
+        <v>0.01484329623671574</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03350715999075979</v>
+        <v>0.03481757202455246</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>52</v>
@@ -1285,19 +1285,19 @@
         <v>56186</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>43097</v>
+        <v>42196</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>73670</v>
+        <v>71084</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02828735234668486</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02169749248858603</v>
+        <v>0.02124389234910818</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03708972519760858</v>
+        <v>0.03578761288281472</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>911729</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>891277</v>
+        <v>891955</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>927824</v>
+        <v>928843</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9180004957112102</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8974076868688297</v>
+        <v>0.8980907470405359</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9342064873783643</v>
+        <v>0.9352321248424775</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>852</v>
@@ -1335,19 +1335,19 @@
         <v>936372</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>921842</v>
+        <v>921400</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>950864</v>
+        <v>949978</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9428709020903557</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9282399870784396</v>
+        <v>0.9277949537491794</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9574642113006294</v>
+        <v>0.9565720508276874</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1691</v>
@@ -1356,19 +1356,19 @@
         <v>1848100</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1824657</v>
+        <v>1824101</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1869987</v>
+        <v>1871517</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9304353197364955</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9186327424546703</v>
+        <v>0.9183528473567687</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9414543547343931</v>
+        <v>0.9422242808645291</v>
       </c>
     </row>
     <row r="13">
@@ -1460,19 +1460,19 @@
         <v>10968</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5876</v>
+        <v>5771</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>19918</v>
+        <v>20068</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.0147031529695919</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.007876905461959991</v>
+        <v>0.007735939867970501</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02670190129422793</v>
+        <v>0.02690304324112502</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3</v>
@@ -1481,19 +1481,19 @@
         <v>3932</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>12711</v>
+        <v>11877</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.005292958592026232</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.001316617339649592</v>
+        <v>0.001320089066993724</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01710961820726731</v>
+        <v>0.01598766237230581</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>13</v>
@@ -1502,19 +1502,19 @@
         <v>14900</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>8007</v>
+        <v>7920</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>25638</v>
+        <v>24857</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.010007678648747</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.00537793844801684</v>
+        <v>0.005319212580228646</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01721995379361659</v>
+        <v>0.01669542602261937</v>
       </c>
     </row>
     <row r="15">
@@ -1531,19 +1531,19 @@
         <v>11088</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6007</v>
+        <v>5925</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>19259</v>
+        <v>18372</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.01486490236876865</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.008052610869944028</v>
+        <v>0.007942825876209512</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.02581827634411089</v>
+        <v>0.02462927415360442</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>10</v>
@@ -1552,19 +1552,19 @@
         <v>9971</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>4990</v>
+        <v>4965</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>17250</v>
+        <v>17819</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.01342111216482439</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.006716723595043995</v>
+        <v>0.006683643427115797</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.02321947057860827</v>
+        <v>0.02398535819770136</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>21</v>
@@ -1573,19 +1573,19 @@
         <v>21059</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>13905</v>
+        <v>13161</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>31151</v>
+        <v>31154</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.01414448368714505</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.00933916405149585</v>
+        <v>0.008839801879456892</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.02092249840611855</v>
+        <v>0.02092503541521476</v>
       </c>
     </row>
     <row r="16">
@@ -1602,19 +1602,19 @@
         <v>22805</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>13972</v>
+        <v>14845</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>35601</v>
+        <v>35593</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0305721759259956</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0187299441155669</v>
+        <v>0.01990112364286863</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04772589363675388</v>
+        <v>0.04771455895804486</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -1623,19 +1623,19 @@
         <v>10176</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5054</v>
+        <v>5077</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>18804</v>
+        <v>18187</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01369768784218475</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.006802783269723011</v>
+        <v>0.006833667176303826</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02531079821680644</v>
+        <v>0.02448050150284953</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>30</v>
@@ -1644,19 +1644,19 @@
         <v>32981</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>22481</v>
+        <v>21720</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>46732</v>
+        <v>47221</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02215218774128457</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01509923892319032</v>
+        <v>0.01458837674762898</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03138784227120884</v>
+        <v>0.03171607594045362</v>
       </c>
     </row>
     <row r="17">
@@ -1673,19 +1673,19 @@
         <v>701088</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>686734</v>
+        <v>685997</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>713775</v>
+        <v>713191</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9398597687356438</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9206172737864637</v>
+        <v>0.9196293066988851</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9568671453566041</v>
+        <v>0.9560842571307751</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>650</v>
@@ -1694,19 +1694,19 @@
         <v>718826</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>707916</v>
+        <v>707924</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>727065</v>
+        <v>727839</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9675882414009647</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9529019740474647</v>
+        <v>0.952912890022516</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.978677752136343</v>
+        <v>0.9797207738333449</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1287</v>
@@ -1715,19 +1715,19 @@
         <v>1419915</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1400070</v>
+        <v>1400159</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1434673</v>
+        <v>1435384</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9536956499228234</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9403668100516271</v>
+        <v>0.9404265357992382</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9636084719343844</v>
+        <v>0.9640860173081495</v>
       </c>
     </row>
     <row r="18">
@@ -1819,19 +1819,19 @@
         <v>5668</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1882</v>
+        <v>2674</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>10645</v>
+        <v>12307</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.006148181584155535</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.002041039135325774</v>
+        <v>0.002900449637639876</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01154680421122058</v>
+        <v>0.0133500208641831</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2</v>
@@ -1843,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>5755</v>
+        <v>6595</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.001890137088391981</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.005720467645023295</v>
+        <v>0.006555768659658667</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>8</v>
@@ -1861,19 +1861,19 @@
         <v>7569</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>3744</v>
+        <v>3653</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>15112</v>
+        <v>14372</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.003926247713708285</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.001941803145390585</v>
+        <v>0.00189500383831137</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.007838787750881388</v>
+        <v>0.007454681137694258</v>
       </c>
     </row>
     <row r="20">
@@ -1890,19 +1890,19 @@
         <v>5680</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1913</v>
+        <v>1916</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>11371</v>
+        <v>12716</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.006161623342122421</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.002075057479436446</v>
+        <v>0.002077945676887236</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01233498476242107</v>
+        <v>0.01379400706734676</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>4</v>
@@ -1911,19 +1911,19 @@
         <v>4125</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1007</v>
+        <v>1088</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>9896</v>
+        <v>10279</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.004100319707488492</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.001001415056050603</v>
+        <v>0.00108186281421272</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.00983675298952952</v>
+        <v>0.01021742404566938</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>10</v>
@@ -1932,19 +1932,19 @@
         <v>9805</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>4890</v>
+        <v>4863</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>17466</v>
+        <v>17209</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.005085993351025335</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.002536461477205899</v>
+        <v>0.002522265066246634</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.009059909824189973</v>
+        <v>0.008926457926240397</v>
       </c>
     </row>
     <row r="21">
@@ -1961,19 +1961,19 @@
         <v>18458</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>10821</v>
+        <v>11724</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>29784</v>
+        <v>29149</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02002270394767408</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01173804363831987</v>
+        <v>0.01271790322298462</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.03230789681306707</v>
+        <v>0.03161922000060248</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>10</v>
@@ -1982,19 +1982,19 @@
         <v>9669</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>4821</v>
+        <v>4780</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>16497</v>
+        <v>17064</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.009611810361919059</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.004792274356652911</v>
+        <v>0.004751575918303831</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.01639904024591107</v>
+        <v>0.01696183173252931</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>28</v>
@@ -2003,19 +2003,19 @@
         <v>28128</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>19105</v>
+        <v>18676</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>40687</v>
+        <v>38739</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01459008878763381</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.009910151131481195</v>
+        <v>0.009687359540024747</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.02110455339170713</v>
+        <v>0.02009429271341819</v>
       </c>
     </row>
     <row r="22">
@@ -2032,19 +2032,19 @@
         <v>892059</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>878847</v>
+        <v>879495</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>901534</v>
+        <v>901497</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.967667491126048</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9533356274796236</v>
+        <v>0.9540387690254674</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9779456774712741</v>
+        <v>0.9779056577648463</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>943</v>
@@ -2053,19 +2053,19 @@
         <v>990301</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>981634</v>
+        <v>981171</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>996371</v>
+        <v>996878</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9843977328422004</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9757822058952051</v>
+        <v>0.9753223405320025</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9904312883667206</v>
+        <v>0.9909354614251867</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1801</v>
@@ -2074,19 +2074,19 @@
         <v>1882360</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1867056</v>
+        <v>1868379</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1894351</v>
+        <v>1894721</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9763976701476326</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9684595867828434</v>
+        <v>0.9691455691169286</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9826176494378538</v>
+        <v>0.9828094175229123</v>
       </c>
     </row>
     <row r="23">
@@ -2178,19 +2178,19 @@
         <v>72880</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>56600</v>
+        <v>57249</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>93032</v>
+        <v>90758</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02171340909887982</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01686297499514861</v>
+        <v>0.01705637277193886</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.02771732790563288</v>
+        <v>0.02703966180502753</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>39</v>
@@ -2199,19 +2199,19 @@
         <v>41287</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>29400</v>
+        <v>30277</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>55559</v>
+        <v>58134</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01210873328162763</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.008622653760502925</v>
+        <v>0.008879723897195929</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.01629451895406284</v>
+        <v>0.0170498752797974</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>109</v>
@@ -2220,19 +2220,19 @@
         <v>114167</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>93924</v>
+        <v>94451</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>136021</v>
+        <v>136816</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01687330238178529</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01388149517211777</v>
+        <v>0.01395936706123263</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.02010321497366082</v>
+        <v>0.02022078414995938</v>
       </c>
     </row>
     <row r="25">
@@ -2249,19 +2249,19 @@
         <v>72960</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>58020</v>
+        <v>56711</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>91811</v>
+        <v>90929</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02173724148704625</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01728599865363804</v>
+        <v>0.01689619007666913</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02735360481423071</v>
+        <v>0.0270908520041035</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>51</v>
@@ -2270,19 +2270,19 @@
         <v>52103</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>38518</v>
+        <v>39253</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>67525</v>
+        <v>67635</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0152810842131668</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01129657511719369</v>
+        <v>0.01151229784309171</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01980393785316765</v>
+        <v>0.01983636014947548</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>122</v>
@@ -2291,19 +2291,19 @@
         <v>125064</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>104820</v>
+        <v>104273</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>149025</v>
+        <v>148665</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01848377507313635</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01549180808672622</v>
+        <v>0.0154110302557988</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02202516508999753</v>
+        <v>0.02197196622273516</v>
       </c>
     </row>
     <row r="26">
@@ -2320,19 +2320,19 @@
         <v>97096</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>78635</v>
+        <v>77108</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>118819</v>
+        <v>118572</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02892807322355203</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02342793216745951</v>
+        <v>0.02297298839097553</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03540009675011888</v>
+        <v>0.03532653324696285</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>53</v>
@@ -2341,19 +2341,19 @@
         <v>54279</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>39215</v>
+        <v>41015</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>69958</v>
+        <v>70724</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01591921479149345</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01150124619962822</v>
+        <v>0.01202910671197018</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02051738348929891</v>
+        <v>0.0207422206116163</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>145</v>
@@ -2362,19 +2362,19 @@
         <v>151375</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>127155</v>
+        <v>129169</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>178302</v>
+        <v>176906</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02237248881063094</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01879283410414363</v>
+        <v>0.01909050985742674</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02635215906669771</v>
+        <v>0.02614584548587452</v>
       </c>
     </row>
     <row r="27">
@@ -2391,19 +2391,19 @@
         <v>3113523</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>3080722</v>
+        <v>3081053</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>3143227</v>
+        <v>3143703</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.9276212761905219</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9178489265455688</v>
+        <v>0.9179475696008591</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9364712924673427</v>
+        <v>0.9366130594839742</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>3017</v>
@@ -2412,19 +2412,19 @@
         <v>3262002</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>3237071</v>
+        <v>3237947</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>3283634</v>
+        <v>3285766</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.9566909677137121</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.949379112281715</v>
+        <v>0.9496360469461345</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9630352187863002</v>
+        <v>0.9636604673991941</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>5929</v>
@@ -2433,19 +2433,19 @@
         <v>6375525</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>6333612</v>
+        <v>6339048</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>6414265</v>
+        <v>6414669</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9422704337344474</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9360758194385109</v>
+        <v>0.9368792168294743</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9479960038514166</v>
+        <v>0.9480556542536008</v>
       </c>
     </row>
     <row r="28">
@@ -2780,7 +2780,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9252</v>
+        <v>10576</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.004226914135861168</v>
@@ -2789,7 +2789,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0140157290047484</v>
+        <v>0.01602050538232234</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -2798,19 +2798,19 @@
         <v>4278</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>998</v>
+        <v>1471</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11644</v>
+        <v>12475</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.006658865606375396</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.001552845367670847</v>
+        <v>0.002289794232501658</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01812374636975657</v>
+        <v>0.01941691479511376</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -2819,19 +2819,19 @@
         <v>7069</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2832</v>
+        <v>2801</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>15122</v>
+        <v>15965</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.005426414331488073</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002174230199028667</v>
+        <v>0.002150242555492025</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01160913895268194</v>
+        <v>0.01225637903964611</v>
       </c>
     </row>
     <row r="5">
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6349</v>
+        <v>6243</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.002806724094050254</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.009617939291581522</v>
+        <v>0.009457883587264232</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -2885,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>5601</v>
+        <v>6486</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.001422376527619516</v>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.004300081728889571</v>
+        <v>0.00497908808343659</v>
       </c>
     </row>
     <row r="6">
@@ -2911,19 +2911,19 @@
         <v>8378</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3277</v>
+        <v>4032</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>16170</v>
+        <v>15717</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.0126919038076948</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.00496351293028224</v>
+        <v>0.006107228663020386</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02449501511393625</v>
+        <v>0.02380948533446574</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>3</v>
@@ -2932,19 +2932,19 @@
         <v>2649</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>7883</v>
+        <v>7184</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.004122864298484223</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.00129977848466617</v>
+        <v>0.001301106086833744</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01226914729701031</v>
+        <v>0.01118238937633246</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>11</v>
@@ -2953,19 +2953,19 @@
         <v>11027</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>5635</v>
+        <v>5896</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>19339</v>
+        <v>19288</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.008465436013310975</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.004325865489653529</v>
+        <v>0.004526480536400743</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01484613496361628</v>
+        <v>0.01480698492369663</v>
       </c>
     </row>
     <row r="7">
@@ -2982,19 +2982,19 @@
         <v>647110</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>638101</v>
+        <v>637563</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>653233</v>
+        <v>653141</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9802744579623938</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9666278405863046</v>
+        <v>0.9658126026751287</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9895508502786544</v>
+        <v>0.9894113396844955</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>631</v>
@@ -3003,19 +3003,19 @@
         <v>635554</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>628471</v>
+        <v>627387</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>639656</v>
+        <v>639220</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9892182700951404</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9781936911635316</v>
+        <v>0.9765067305694636</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9956031407651669</v>
+        <v>0.9949249950670186</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1256</v>
@@ -3024,19 +3024,19 @@
         <v>1282664</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1272228</v>
+        <v>1271473</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1290277</v>
+        <v>1289682</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9846857731275814</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9766742657132649</v>
+        <v>0.9760947888427527</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9905307887883611</v>
+        <v>0.9900737423238681</v>
       </c>
     </row>
     <row r="8">
@@ -3128,19 +3128,19 @@
         <v>3154</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8304</v>
+        <v>8627</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.003133234943044272</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.0009725150613829618</v>
+        <v>0.0009735938534749156</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.008248766715425654</v>
+        <v>0.008569535620549152</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>2</v>
@@ -3152,7 +3152,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>6337</v>
+        <v>7392</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.002072471583371053</v>
@@ -3161,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.006245350311670546</v>
+        <v>0.007285042187030469</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>5</v>
@@ -3170,19 +3170,19 @@
         <v>5257</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1111</v>
+        <v>1991</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>10809</v>
+        <v>11602</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.002600778897953879</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0005494367146887584</v>
+        <v>0.0009850432693417502</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.005347554387580548</v>
+        <v>0.005739451185406218</v>
       </c>
     </row>
     <row r="10">
@@ -3215,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5728</v>
+        <v>4658</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.00091089357884999</v>
@@ -3224,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.005645234724065756</v>
+        <v>0.004590329753144497</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1</v>
@@ -3236,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>5957</v>
+        <v>4985</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0004572280783172164</v>
@@ -3245,7 +3245,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.002947210558278993</v>
+        <v>0.002465936804372338</v>
       </c>
     </row>
     <row r="11">
@@ -3262,19 +3262,19 @@
         <v>5875</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1964</v>
+        <v>2144</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>14052</v>
+        <v>13883</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.005835420586247935</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.001950930607985958</v>
+        <v>0.002129467986534103</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01395850477535905</v>
+        <v>0.01379023778045857</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>5650</v>
+        <v>5285</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.001063194292204439</v>
@@ -3295,7 +3295,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.005568510882880801</v>
+        <v>0.005208827712962817</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>6</v>
@@ -3304,19 +3304,19 @@
         <v>6953</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2786</v>
+        <v>2832</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>14913</v>
+        <v>15581</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.003439975159488878</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.001378149574749764</v>
+        <v>0.001400797710456556</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.007377773633689608</v>
+        <v>0.007708280802248254</v>
       </c>
     </row>
     <row r="12">
@@ -3333,19 +3333,19 @@
         <v>997703</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>989204</v>
+        <v>988186</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1002602</v>
+        <v>1002475</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9910313444707078</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9825891492286568</v>
+        <v>0.9815780531999239</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9958977997379137</v>
+        <v>0.9957716416028491</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>949</v>
@@ -3354,19 +3354,19 @@
         <v>1010532</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1004596</v>
+        <v>1005146</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>1013566</v>
+        <v>1013604</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9959534405455746</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9901028822304253</v>
+        <v>0.9906447328130643</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9989433650149189</v>
+        <v>0.9989814000125148</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1877</v>
@@ -3375,19 +3375,19 @@
         <v>2008235</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1998994</v>
+        <v>1997590</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>2014818</v>
+        <v>2013928</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.99350201786424</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9889301777910915</v>
+        <v>0.988235511864718</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.996758578012701</v>
+        <v>0.9963181241295765</v>
       </c>
     </row>
     <row r="13">
@@ -3492,19 +3492,19 @@
         <v>2946</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>7798</v>
+        <v>7840</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.003972749682410012</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.001222099896861249</v>
+        <v>0.001212882254456885</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01051424191183703</v>
+        <v>0.01057062604520865</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3</v>
@@ -3513,19 +3513,19 @@
         <v>2946</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>7846</v>
+        <v>8917</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.002001795655600753</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0006144803396063016</v>
+        <v>0.000612127673472678</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.005330815910433936</v>
+        <v>0.006058451718193012</v>
       </c>
     </row>
     <row r="15">
@@ -3542,19 +3542,19 @@
         <v>4192</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>10612</v>
+        <v>9623</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.005740433149759211</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.001444178518606037</v>
+        <v>0.00144673389591654</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.01453210869671897</v>
+        <v>0.01317749140683427</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>1</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>5609</v>
+        <v>4921</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.001327741299940159</v>
@@ -3575,7 +3575,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.007562805464705924</v>
+        <v>0.006634706303086266</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>5</v>
@@ -3584,19 +3584,19 @@
         <v>5177</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>2027</v>
+        <v>2000</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>11298</v>
+        <v>10445</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.003516958709981766</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.001377344670725357</v>
+        <v>0.001358561223149594</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.007675477841683917</v>
+        <v>0.007095972792704634</v>
       </c>
     </row>
     <row r="16">
@@ -3613,19 +3613,19 @@
         <v>20667</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>12428</v>
+        <v>12729</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>32228</v>
+        <v>31586</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02830231459213798</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01701907204943861</v>
+        <v>0.01743170234172127</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04413375849036789</v>
+        <v>0.04325407239080744</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>11</v>
@@ -3634,19 +3634,19 @@
         <v>11148</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5284</v>
+        <v>5836</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>18534</v>
+        <v>19491</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01503109664522854</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.007124845286640082</v>
+        <v>0.007868391788603143</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02498926003561126</v>
+        <v>0.02627981935352501</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>29</v>
@@ -3655,19 +3655,19 @@
         <v>31816</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>22022</v>
+        <v>22210</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>44863</v>
+        <v>46589</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02161519142697093</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01496138542023945</v>
+        <v>0.01508958729152248</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03047941968612395</v>
+        <v>0.03165216239982548</v>
       </c>
     </row>
     <row r="17">
@@ -3684,19 +3684,19 @@
         <v>705380</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>692494</v>
+        <v>693194</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>714191</v>
+        <v>713977</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9659572522581028</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9483111301678553</v>
+        <v>0.9492702625100318</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9780239471365442</v>
+        <v>0.9777304557657874</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>683</v>
@@ -3705,19 +3705,19 @@
         <v>726587</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>718111</v>
+        <v>717150</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>733175</v>
+        <v>732984</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9796684123724213</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9682400297647167</v>
+        <v>0.9669452285811458</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.988552098127129</v>
+        <v>0.988294161727869</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1328</v>
@@ -3726,19 +3726,19 @@
         <v>1431966</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1417843</v>
+        <v>1417505</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1443021</v>
+        <v>1443096</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9728660542074465</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9632706179515702</v>
+        <v>0.9630408352015778</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9803766290407383</v>
+        <v>0.9804275580684062</v>
       </c>
     </row>
     <row r="18">
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>5606</v>
+        <v>5095</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0009946765642128961</v>
@@ -3855,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.005543773467752884</v>
+        <v>0.005039052037392699</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1</v>
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>5359</v>
+        <v>5443</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0005206482995556003</v>
@@ -3876,7 +3876,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.002773937965355451</v>
+        <v>0.002817518682922416</v>
       </c>
     </row>
     <row r="20">
@@ -3896,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7361</v>
+        <v>7582</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.002335898274737147</v>
@@ -3905,7 +3905,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.007996276266105863</v>
+        <v>0.00823635948289655</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -3917,7 +3917,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>4689</v>
+        <v>4460</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0009293981632662109</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.004637242953766867</v>
+        <v>0.004411220301616295</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>3</v>
@@ -3938,16 +3938,16 @@
         <v>934</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>8385</v>
+        <v>9276</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.001599687211051757</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0004832588436825188</v>
+        <v>0.0004835666674074922</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.004340713632929897</v>
+        <v>0.004801708628324675</v>
       </c>
     </row>
     <row r="21">
@@ -3964,19 +3964,19 @@
         <v>6980</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2974</v>
+        <v>2989</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>14037</v>
+        <v>14406</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.00758157925675219</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.003230355832421833</v>
+        <v>0.003246724009875307</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.01524781761341242</v>
+        <v>0.01564822182653971</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>4</v>
@@ -3985,19 +3985,19 @@
         <v>4511</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1108</v>
+        <v>1101</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>10617</v>
+        <v>10380</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.004460886971414176</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.001095589023374234</v>
+        <v>0.001088558044732385</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.01049971208977294</v>
+        <v>0.01026607143067493</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>11</v>
@@ -4006,19 +4006,19 @@
         <v>11490</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>6106</v>
+        <v>6522</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>20252</v>
+        <v>20788</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.00594810040517873</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.00316113701522682</v>
+        <v>0.00337630222532426</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01048392764237249</v>
+        <v>0.0107611267687919</v>
       </c>
     </row>
     <row r="22">
@@ -4035,19 +4035,19 @@
         <v>911466</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>904238</v>
+        <v>903597</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>916455</v>
+        <v>915969</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9900825224685107</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9822307795800113</v>
+        <v>0.9815344257764156</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9955021759943824</v>
+        <v>0.9949741960305174</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>923</v>
@@ -4056,19 +4056,19 @@
         <v>1004680</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>997605</v>
+        <v>997277</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1008801</v>
+        <v>1008190</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9936150383011068</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9866178702957448</v>
+        <v>0.9862937200630603</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9976905255171785</v>
+        <v>0.9970861787162346</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1828</v>
@@ -4077,19 +4077,19 @@
         <v>1916146</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1906705</v>
+        <v>1905919</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1922812</v>
+        <v>1922587</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9919315640842139</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.987044251321106</v>
+        <v>0.9866372591773097</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9953823113915286</v>
+        <v>0.9952658589710751</v>
       </c>
     </row>
     <row r="23">
@@ -4181,19 +4181,19 @@
         <v>5945</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1966</v>
+        <v>2076</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>13800</v>
+        <v>13082</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.001791797644972946</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0005926349008013749</v>
+        <v>0.0006257089438777457</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.004159415514285202</v>
+        <v>0.003943077988335075</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>10</v>
@@ -4202,19 +4202,19 @@
         <v>10333</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>5247</v>
+        <v>5302</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>18704</v>
+        <v>18961</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.003030337431054958</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.00153878379357481</v>
+        <v>0.00155494010270447</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.005485058592902414</v>
+        <v>0.005560394778751146</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>15</v>
@@ -4223,19 +4223,19 @@
         <v>16278</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>9016</v>
+        <v>9125</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>26789</v>
+        <v>26569</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.002419556523311209</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.001340119382165579</v>
+        <v>0.001356377277279773</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.003981878802300734</v>
+        <v>0.003949298937779891</v>
       </c>
     </row>
     <row r="25">
@@ -4252,19 +4252,19 @@
         <v>8195</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3888</v>
+        <v>4055</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>15442</v>
+        <v>15932</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.002470120032702818</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.001171812928967304</v>
+        <v>0.001222145840767138</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.004654477200613514</v>
+        <v>0.004802272176171159</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>3</v>
@@ -4276,16 +4276,16 @@
         <v>924</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>8842</v>
+        <v>7409</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0008354198319530229</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0002710945872043272</v>
+        <v>0.0002710236954901022</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.00259290308095793</v>
+        <v>0.00217277852780847</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>11</v>
@@ -4294,19 +4294,19 @@
         <v>11044</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>6034</v>
+        <v>5850</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>19078</v>
+        <v>18894</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.001641565652800101</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0008969660472255072</v>
+        <v>0.0008695716154733825</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.00283583141737994</v>
+        <v>0.002808385125263952</v>
       </c>
     </row>
     <row r="26">
@@ -4323,19 +4323,19 @@
         <v>41900</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>28794</v>
+        <v>29173</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>56416</v>
+        <v>56747</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01262925387126182</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0086789589802699</v>
+        <v>0.008793270303462268</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01700466820095743</v>
+        <v>0.01710447917687481</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>19</v>
@@ -4344,19 +4344,19 @@
         <v>19386</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>11598</v>
+        <v>12186</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>28861</v>
+        <v>30066</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.005685245205615575</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.00340139424166884</v>
+        <v>0.003573638999283495</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.008463771194224746</v>
+        <v>0.008817343345243147</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>57</v>
@@ -4365,19 +4365,19 @@
         <v>61286</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>47275</v>
+        <v>47068</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>79568</v>
+        <v>80333</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.009109655114642937</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.007027047100665106</v>
+        <v>0.006996259745821781</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01182707510118043</v>
+        <v>0.0119408049447257</v>
       </c>
     </row>
     <row r="27">
@@ -4394,19 +4394,19 @@
         <v>3261658</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>3244184</v>
+        <v>3246140</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>3276182</v>
+        <v>3275242</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.9831088284510624</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9778418540884354</v>
+        <v>0.9784313482201006</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9874865286024649</v>
+        <v>0.987203099644047</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>3186</v>
@@ -4415,19 +4415,19 @@
         <v>3377353</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>3365037</v>
+        <v>3364636</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>3387310</v>
+        <v>3387550</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.9904489975313765</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.9868373098160235</v>
+        <v>0.9867196767379277</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9933689594411859</v>
+        <v>0.9934393664171138</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>6289</v>
@@ -4436,19 +4436,19 @@
         <v>6639011</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>6618362</v>
+        <v>6615057</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>6656704</v>
+        <v>6655471</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9868292227092458</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9837599273001675</v>
+        <v>0.9832687083505374</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9894591868829222</v>
+        <v>0.9892757816707595</v>
       </c>
     </row>
     <row r="28">
